--- a/biology/Écologie/Loi_gaïenne/Loi_gaïenne.xlsx
+++ b/biology/Écologie/Loi_gaïenne/Loi_gaïenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_ga%C3%AFenne</t>
+          <t>Loi_gaïenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lois gaïennes ou lois de la Nature seraient l'ensemble des contraintes hypothétiques permettant de préserver la stabilité de la biosphère ou de l'écosphère, selon la théorie controversée de Gaïa. 
 Pour que le système biosphérique conserve sa stabilité, il est nécessaire que tous les êtres vivants et toutes les communautés formées par ces êtres vivants, respectent une véritable hiérarchie de lois. 
